--- a/tempData/Museum.xlsx
+++ b/tempData/Museum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shih-Chi\Desktop\Nook Inc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shih-Chi\Desktop\Nook Inc\NookAssets\tempData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="11892" windowHeight="6372" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="11892" windowHeight="6372"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -824,9 +824,6 @@
     <t>2;3</t>
   </si>
   <si>
-    <t>4;6;7;8;9;10</t>
-  </si>
-  <si>
     <t>1;2;3;4;10;11;12</t>
   </si>
   <si>
@@ -2089,6 +2086,10 @@
   </si>
   <si>
     <t>無影響</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5;6;7;8;9;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2430,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2450,37 +2451,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2503,7 +2504,7 @@
         <v>254</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>255</v>
@@ -2537,7 +2538,7 @@
         <v>254</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>257</v>
@@ -2571,7 +2572,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>257</v>
@@ -2605,7 +2606,7 @@
         <v>169</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>257</v>
@@ -2874,7 +2875,7 @@
         <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>262</v>
@@ -2907,13 +2908,13 @@
         <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>30</v>
@@ -2943,10 +2944,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>8</v>
@@ -2976,10 +2977,10 @@
         <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>8</v>
@@ -3006,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>257</v>
@@ -3039,13 +3040,13 @@
         <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>8</v>
@@ -3075,10 +3076,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>10</v>
@@ -3108,10 +3109,10 @@
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>4</v>
@@ -3138,7 +3139,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>257</v>
@@ -3171,7 +3172,7 @@
         <v>169</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>261</v>
@@ -3204,7 +3205,7 @@
         <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>257</v>
@@ -3237,13 +3238,13 @@
         <v>169</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>8</v>
@@ -3267,16 +3268,16 @@
         <v>1800</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>8</v>
@@ -3303,13 +3304,13 @@
         <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>8</v>
@@ -3336,13 +3337,13 @@
         <v>169</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>8</v>
@@ -3372,13 +3373,13 @@
         <v>60</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K28" s="1"/>
     </row>
@@ -3405,13 +3406,13 @@
         <v>60</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="J29" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K29" s="1"/>
     </row>
@@ -3438,10 +3439,10 @@
         <v>60</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>10</v>
@@ -3465,16 +3466,16 @@
         <v>15000</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>10</v>
@@ -3501,7 +3502,7 @@
         <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H32" s="1">
         <v>9</v>
@@ -3531,10 +3532,10 @@
         <v>1800</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H33" s="1">
         <v>9</v>
@@ -3567,13 +3568,13 @@
         <v>7</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>10</v>
@@ -3600,13 +3601,13 @@
         <v>254</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>4</v>
@@ -3633,7 +3634,7 @@
         <v>254</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>256</v>
@@ -3666,13 +3667,13 @@
         <v>7</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>10</v>
@@ -3699,13 +3700,13 @@
         <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>4</v>
@@ -3732,13 +3733,13 @@
         <v>254</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>4</v>
@@ -3765,13 +3766,13 @@
         <v>254</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>4</v>
@@ -3798,16 +3799,16 @@
         <v>7</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K41" s="1"/>
     </row>
@@ -3831,13 +3832,13 @@
         <v>53</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>10</v>
@@ -3861,16 +3862,16 @@
         <v>15000</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>119</v>
@@ -3894,16 +3895,16 @@
         <v>6000</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>10</v>
@@ -3927,16 +3928,16 @@
         <v>10000</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>10</v>
@@ -3963,13 +3964,13 @@
         <v>53</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>30</v>
@@ -3993,16 +3994,16 @@
         <v>10000</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H47" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>8</v>
@@ -4032,10 +4033,10 @@
         <v>101</v>
       </c>
       <c r="H48" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>8</v>
@@ -4065,10 +4066,10 @@
         <v>101</v>
       </c>
       <c r="H49" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>8</v>
@@ -4191,16 +4192,16 @@
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>119</v>
@@ -4230,10 +4231,10 @@
         <v>101</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>8</v>
@@ -4263,10 +4264,10 @@
         <v>101</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>30</v>
@@ -4296,10 +4297,10 @@
         <v>101</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
@@ -4395,10 +4396,10 @@
         <v>101</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
@@ -4422,7 +4423,7 @@
         <v>400</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>101</v>
@@ -4461,7 +4462,7 @@
         <v>101</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>257</v>
@@ -4494,10 +4495,10 @@
         <v>101</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>8</v>
@@ -4521,7 +4522,7 @@
         <v>800</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>101</v>
@@ -4560,10 +4561,10 @@
         <v>101</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>8</v>
@@ -4593,10 +4594,10 @@
         <v>101</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>8</v>
@@ -4626,10 +4627,10 @@
         <v>101</v>
       </c>
       <c r="H66" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>8</v>
@@ -4653,16 +4654,16 @@
         <v>7000</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>8</v>
@@ -4686,16 +4687,16 @@
         <v>10000</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H68" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>8</v>
@@ -4719,16 +4720,16 @@
         <v>4500</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>8</v>
@@ -4752,16 +4753,16 @@
         <v>6000</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H70" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>8</v>
@@ -4791,10 +4792,10 @@
         <v>101</v>
       </c>
       <c r="H71" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>119</v>
@@ -4818,16 +4819,16 @@
         <v>3000</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H72" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>119</v>
@@ -4857,10 +4858,10 @@
         <v>101</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>10</v>
@@ -4890,10 +4891,10 @@
         <v>101</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>10</v>
@@ -4923,10 +4924,10 @@
         <v>101</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>10</v>
@@ -4956,10 +4957,10 @@
         <v>101</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>8</v>
@@ -4989,10 +4990,10 @@
         <v>101</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>8</v>
@@ -5049,16 +5050,16 @@
         <v>9000</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H79" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>8</v>
@@ -5115,7 +5116,7 @@
         <v>15000</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>101</v>
@@ -5130,7 +5131,7 @@
         <v>8</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5144,7 +5145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5164,37 +5165,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5202,34 +5203,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" s="1">
         <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5237,34 +5238,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" s="1">
         <v>160</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5272,34 +5273,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E4" s="1">
         <v>240</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5307,34 +5308,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" s="1">
         <v>2500</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5342,34 +5343,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>258</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5377,22 +5378,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E7" s="1">
         <v>1000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>257</v>
@@ -5401,10 +5402,10 @@
         <v>257</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5412,34 +5413,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E8" s="1">
         <v>3000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5447,34 +5448,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E9" s="1">
         <v>140</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5482,34 +5483,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E10" s="1">
         <v>4000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5517,34 +5518,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E11" s="1">
         <v>3000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>260</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5552,34 +5553,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E12" s="1">
         <v>2500</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5587,34 +5588,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E13" s="1">
         <v>4000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5622,22 +5623,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E14" s="1">
         <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>257</v>
@@ -5646,10 +5647,10 @@
         <v>257</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5657,31 +5658,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E15" s="1">
         <v>3000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>260</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K15" s="1"/>
     </row>
@@ -5690,34 +5691,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E16" s="1">
         <v>2500</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>260</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5725,34 +5726,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E17" s="1">
         <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5760,34 +5761,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E18" s="1">
         <v>600</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5795,34 +5796,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E19" s="1">
         <v>400</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5830,34 +5831,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E20" s="1">
         <v>160</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5865,34 +5866,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E21" s="1">
         <v>130</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5900,34 +5901,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E22" s="1">
         <v>430</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5935,34 +5936,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E23" s="1">
         <v>430</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5970,34 +5971,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E24" s="1">
         <v>2400</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -6005,34 +6006,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E25" s="1">
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -6040,22 +6041,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E26" s="1">
         <v>2500</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>257</v>
@@ -6067,7 +6068,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -6075,34 +6076,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="E27" s="1">
         <v>250</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -6110,34 +6111,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E28" s="1">
         <v>300</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6145,34 +6146,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="E29" s="1">
         <v>500</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J29" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6180,22 +6181,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E30" s="1">
         <v>400</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>262</v>
@@ -6204,10 +6205,10 @@
         <v>263</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6215,34 +6216,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="E31" s="1">
         <v>550</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -6250,34 +6251,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -6285,34 +6286,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E33" s="1">
         <v>180</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H33" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>470</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -6320,34 +6321,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E34" s="1">
         <v>230</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -6355,34 +6356,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E35" s="1">
         <v>4500</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -6390,34 +6391,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -6425,22 +6426,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E37" s="1">
         <v>300</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H37" s="1">
         <v>6</v>
@@ -6449,7 +6450,7 @@
         <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K37" s="1"/>
     </row>
@@ -6458,34 +6459,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E38" s="1">
         <v>500</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6493,19 +6494,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E39" s="1">
         <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
@@ -6514,13 +6515,13 @@
         <v>256</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -6528,31 +6529,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E40" s="1">
         <v>800</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K40" s="1"/>
     </row>
@@ -6561,31 +6562,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E41" s="1">
         <v>2000</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>260</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K41" s="1"/>
     </row>
@@ -6594,34 +6595,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E42" s="1">
         <v>120</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -6629,34 +6630,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E43" s="1">
         <v>1000</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -6664,34 +6665,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E44" s="1">
         <v>200</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -6699,34 +6700,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E45" s="1">
         <v>1500</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -6734,28 +6735,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E46" s="1">
         <v>2400</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>258</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>8</v>
@@ -6767,28 +6768,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E47" s="1">
         <v>450</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>8</v>
@@ -6800,22 +6801,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="E48" s="1">
         <v>350</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>257</v>
@@ -6833,28 +6834,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E49" s="1">
         <v>3000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>8</v>
@@ -6866,28 +6867,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E50" s="1">
         <v>800</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
@@ -6899,28 +6900,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E51" s="1">
         <v>3000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>8</v>
@@ -6932,34 +6933,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="E52" s="1">
         <v>300</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H52" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -6967,31 +6968,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E53" s="1">
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K53" s="1"/>
     </row>
@@ -7000,28 +7001,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E54" s="1">
         <v>200</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>8</v>
@@ -7033,31 +7034,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E55" s="1">
         <v>8000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K55" s="1"/>
     </row>
@@ -7066,28 +7067,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E56" s="1">
         <v>2000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
@@ -7099,28 +7100,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E57" s="1">
         <v>1000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H57" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>8</v>
@@ -7132,31 +7133,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E58" s="1">
         <v>10000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K58" s="1"/>
     </row>
@@ -7165,31 +7166,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E59" s="1">
         <v>6000</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K59" s="1"/>
     </row>
@@ -7198,31 +7199,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E60" s="1">
         <v>8000</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J60" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K60" s="1"/>
     </row>
@@ -7231,31 +7232,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E61" s="1">
         <v>12000</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H61" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J61" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K61" s="1"/>
     </row>
@@ -7264,31 +7265,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E62" s="1">
         <v>12000</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K62" s="1"/>
     </row>
@@ -7297,31 +7298,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E63" s="1">
         <v>1350</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J63" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K63" s="1"/>
     </row>
@@ -7330,31 +7331,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E64" s="1">
         <v>8000</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K64" s="1"/>
     </row>
@@ -7363,31 +7364,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E65" s="1">
         <v>8000</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J65" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K65" s="1"/>
     </row>
@@ -7396,31 +7397,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E66" s="1">
         <v>12000</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H66" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="J66" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K66" s="1"/>
     </row>
@@ -7429,31 +7430,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E67" s="1">
         <v>600</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K67" s="1"/>
     </row>
@@ -7462,28 +7463,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E68" s="1">
         <v>600</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H68" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>8</v>
@@ -7495,22 +7496,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E69" s="1">
         <v>600</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>257</v>
@@ -7522,7 +7523,7 @@
         <v>8</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -7530,22 +7531,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E70" s="1">
         <v>80</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>257</v>
@@ -7557,7 +7558,7 @@
         <v>8</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -7565,22 +7566,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E71" s="1">
         <v>1000</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>257</v>
@@ -7589,10 +7590,10 @@
         <v>257</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -7600,22 +7601,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E72" s="1">
         <v>200</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>257</v>
@@ -7633,22 +7634,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E73" s="1">
         <v>60</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>257</v>
@@ -7660,7 +7661,7 @@
         <v>8</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -7668,31 +7669,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E74" s="1">
         <v>130</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K74" s="1"/>
     </row>
@@ -7701,28 +7702,28 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E75" s="1">
         <v>70</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>8</v>
@@ -7734,22 +7735,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E76" s="1">
         <v>250</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>257</v>
@@ -7761,7 +7762,7 @@
         <v>8</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -7769,34 +7770,34 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E77" s="1">
         <v>250</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -7804,34 +7805,34 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E78" s="1">
         <v>300</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -7839,22 +7840,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E79" s="1">
         <v>600</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>257</v>
@@ -7863,10 +7864,10 @@
         <v>257</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -7874,34 +7875,34 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E80" s="1">
         <v>8000</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -7909,31 +7910,31 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E81" s="1">
         <v>8000</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -7957,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7965,7 +7966,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -7973,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7981,7 +7982,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7989,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7997,7 +7998,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -8005,7 +8006,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8013,7 +8014,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/tempData/Museum.xlsx
+++ b/tempData/Museum.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shih-Chi\Desktop\Nook Inc\NookAssets\tempData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/08737/exercise/NookAssets/tempData/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA95C3-4390-5640-A6BC-F06205E1B54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="11892" windowHeight="6372"/>
+    <workbookView xWindow="-35140" yWindow="2160" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -151,12 +152,6 @@
     <t>Catfish</t>
   </si>
   <si>
-    <t>黑魚</t>
-  </si>
-  <si>
-    <t>Giant snakehead</t>
-  </si>
-  <si>
     <t>藍鰓太陽魚</t>
   </si>
   <si>
@@ -2090,14 +2085,22 @@
   </si>
   <si>
     <t>4;5;6;7;8;9;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giant snakehead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱧魚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2428,63 +2431,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -2501,16 +2504,16 @@
         <v>900</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
@@ -2518,7 +2521,7 @@
       <c r="K2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2535,16 +2538,16 @@
         <v>200</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>4</v>
@@ -2552,7 +2555,7 @@
       <c r="K3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -2572,13 +2575,13 @@
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
@@ -2586,15 +2589,15 @@
       <c r="K4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -2603,16 +2606,16 @@
         <v>240</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>10</v>
@@ -2620,7 +2623,7 @@
       <c r="K5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -2637,16 +2640,16 @@
         <v>300</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>8</v>
@@ -2654,7 +2657,7 @@
       <c r="K6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -2671,16 +2674,16 @@
         <v>4000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>10</v>
@@ -2688,7 +2691,7 @@
       <c r="K7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -2705,16 +2708,16 @@
         <v>1300</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>8</v>
@@ -2722,7 +2725,7 @@
       <c r="K8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -2739,16 +2742,16 @@
         <v>1300</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>4</v>
@@ -2756,7 +2759,7 @@
       <c r="K9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -2779,17 +2782,17 @@
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
@@ -2806,23 +2809,23 @@
         <v>300</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
@@ -2845,17 +2848,17 @@
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -2872,23 +2875,23 @@
         <v>3750</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
@@ -2905,23 +2908,23 @@
         <v>5000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>32</v>
@@ -2938,23 +2941,23 @@
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>34</v>
@@ -2977,17 +2980,17 @@
         <v>13</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>36</v>
@@ -3007,20 +3010,20 @@
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
@@ -3040,20 +3043,20 @@
         <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -3070,67 +3073,67 @@
         <v>800</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>670</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>669</v>
       </c>
       <c r="E20" s="1">
         <v>5500</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1">
         <v>180</v>
@@ -3139,163 +3142,163 @@
         <v>7</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1">
         <v>300</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1">
         <v>400</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1">
         <v>800</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1">
         <v>1800</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1">
         <v>500</v>
@@ -3304,205 +3307,205 @@
         <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1">
         <v>900</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="32">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1">
         <v>1000</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="32">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="1">
         <v>3800</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1">
         <v>15000</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1">
         <v>15000</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1">
         <v>700</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H32" s="1">
         <v>9</v>
@@ -3515,27 +3518,27 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1">
         <v>1800</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H33" s="1">
         <v>9</v>
@@ -3548,18 +3551,18 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1">
         <v>2000</v>
@@ -3568,97 +3571,97 @@
         <v>7</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1">
         <v>1300</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1">
         <v>1500</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1">
         <v>3000</v>
@@ -3667,31 +3670,31 @@
         <v>7</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1">
         <v>2500</v>
@@ -3700,97 +3703,97 @@
         <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="1">
         <v>500</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1">
         <v>800</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E41" s="1">
         <v>2500</v>
@@ -3799,328 +3802,328 @@
         <v>7</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E42" s="1">
         <v>10000</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E43" s="1">
         <v>15000</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E44" s="1">
         <v>6000</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1">
         <v>10000</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E46" s="1">
         <v>4000</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E47" s="1">
         <v>10000</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E48" s="1">
         <v>1000</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E49" s="1">
         <v>1100</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E50" s="1">
         <v>650</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E51" s="1">
         <v>1000</v>
@@ -4129,31 +4132,31 @@
         <v>7</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E52" s="1">
         <v>1000</v>
@@ -4162,163 +4165,163 @@
         <v>7</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" s="1">
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" s="1">
         <v>500</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E55" s="1">
         <v>5000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E56" s="1">
         <v>250</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1">
         <v>200</v>
@@ -4327,31 +4330,31 @@
         <v>7</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E58" s="1">
         <v>150</v>
@@ -4360,724 +4363,724 @@
         <v>7</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1">
         <v>5000</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1">
         <v>400</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E61" s="1">
         <v>3000</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E62" s="1">
         <v>300</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E63" s="1">
         <v>800</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E64" s="1">
         <v>500</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E65" s="1">
         <v>2000</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E66" s="1">
         <v>600</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E67" s="1">
         <v>7000</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1">
         <v>10000</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E69" s="1">
         <v>4500</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E70" s="1">
         <v>6000</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E71" s="1">
         <v>4000</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E72" s="1">
         <v>3000</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E73" s="1">
         <v>12000</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E74" s="1">
         <v>8000</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E75" s="1">
         <v>15000</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E76" s="1">
         <v>13000</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E77" s="1">
         <v>1500</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E78" s="1">
         <v>2500</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E79" s="1">
         <v>9000</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E80" s="1">
         <v>15000</v>
@@ -5086,52 +5089,52 @@
         <v>7</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E81" s="1">
         <v>15000</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5142,1306 +5145,1306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E2" s="1">
         <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E3" s="1">
         <v>160</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E4" s="1">
         <v>240</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E5" s="1">
         <v>2500</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E7" s="1">
         <v>1000</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E8" s="1">
         <v>3000</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E9" s="1">
         <v>140</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E10" s="1">
         <v>4000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E11" s="1">
         <v>3000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E12" s="1">
         <v>2500</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E13" s="1">
         <v>4000</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E14" s="1">
         <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E15" s="1">
         <v>3000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E16" s="1">
         <v>2500</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E17" s="1">
         <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E18" s="1">
         <v>600</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E19" s="1">
         <v>400</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E20" s="1">
         <v>160</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E21" s="1">
         <v>130</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E22" s="1">
         <v>430</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E23" s="1">
         <v>430</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E24" s="1">
         <v>2400</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E25" s="1">
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E26" s="1">
         <v>2500</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E27" s="1">
         <v>250</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E28" s="1">
         <v>300</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E29" s="1">
         <v>500</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E30" s="1">
         <v>400</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E31" s="1">
         <v>550</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E33" s="1">
         <v>180</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E34" s="1">
         <v>230</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E35" s="1">
         <v>4500</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E37" s="1">
         <v>300</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H37" s="1">
         <v>6</v>
@@ -6450,1491 +6453,1491 @@
         <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E38" s="1">
         <v>500</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E39" s="1">
         <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E40" s="1">
         <v>800</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E41" s="1">
         <v>2000</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E42" s="1">
         <v>120</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E43" s="1">
         <v>1000</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E44" s="1">
         <v>200</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E45" s="1">
         <v>1500</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E46" s="1">
         <v>2400</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E47" s="1">
         <v>450</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E48" s="1">
         <v>350</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E49" s="1">
         <v>3000</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E50" s="1">
         <v>800</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E51" s="1">
         <v>3000</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E52" s="1">
         <v>300</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E53" s="1">
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E54" s="1">
         <v>200</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E55" s="1">
         <v>8000</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E56" s="1">
         <v>2000</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E57" s="1">
         <v>1000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E58" s="1">
         <v>10000</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E59" s="1">
         <v>6000</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E60" s="1">
         <v>8000</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E61" s="1">
         <v>12000</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E62" s="1">
         <v>12000</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E63" s="1">
         <v>1350</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E64" s="1">
         <v>8000</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E65" s="1">
         <v>8000</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E66" s="1">
         <v>12000</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E67" s="1">
         <v>600</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>646</v>
-      </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E68" s="1">
         <v>600</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E69" s="1">
         <v>600</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E70" s="1">
         <v>80</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E71" s="1">
         <v>1000</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E72" s="1">
         <v>200</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E73" s="1">
         <v>60</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E74" s="1">
         <v>130</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E75" s="1">
         <v>70</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E76" s="1">
         <v>250</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E77" s="1">
         <v>250</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E78" s="1">
         <v>300</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E79" s="1">
         <v>600</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E80" s="1">
         <v>8000</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E81" s="1">
         <v>8000</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -7944,77 +7947,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/tempData/Museum.xlsx
+++ b/tempData/Museum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/08737/exercise/NookAssets/tempData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FA95C3-4390-5640-A6BC-F06205E1B54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624A2E8-A775-AA4C-B413-3ACE1D78C9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35140" yWindow="2160" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35140" yWindow="2160" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="672">
   <si>
     <t>紅目鯽</t>
   </si>
@@ -2093,6 +2093,10 @@
   </si>
   <si>
     <t>鱧魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;7;8;9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2434,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5148,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7022,7 +7026,7 @@
         <v>476</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>277</v>
+        <v>671</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>278</v>

--- a/tempData/Museum.xlsx
+++ b/tempData/Museum.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/08737/exercise/NookAssets/tempData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624A2E8-A775-AA4C-B413-3ACE1D78C9E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0D6C6-D71D-EA40-B751-2C35F452E1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35140" yWindow="2160" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fish" sheetId="1" r:id="rId1"/>
     <sheet name="insect" sheetId="4" r:id="rId2"/>
     <sheet name="工作表1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="654">
   <si>
     <t>紅目鯽</t>
   </si>
@@ -963,66 +971,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Common butterfly</t>
-  </si>
-  <si>
     <t>モンシロチョウ</t>
   </si>
   <si>
-    <t>非雨雪天</t>
-  </si>
-  <si>
-    <t>Yellow butterfly</t>
-  </si>
-  <si>
     <t>モンキチョウ</t>
   </si>
   <si>
-    <t>Tiger butterfly</t>
-  </si>
-  <si>
     <t>アゲハチョウ</t>
   </si>
   <si>
-    <t>Peacock butterfly</t>
-  </si>
-  <si>
     <t>カラスアゲハ</t>
   </si>
   <si>
-    <t>Common bluebottle</t>
-  </si>
-  <si>
     <t>アオスジアゲハ</t>
   </si>
   <si>
-    <t>Paper kite butterfly</t>
-  </si>
-  <si>
     <t>オオゴマダラ</t>
   </si>
   <si>
-    <t>Great purple emperor</t>
-  </si>
-  <si>
     <t>オオムラサキ</t>
   </si>
   <si>
-    <t>Monarch butterfly</t>
-  </si>
-  <si>
     <t>オオカバマダラ</t>
   </si>
   <si>
-    <t>Emperor butterfly</t>
-  </si>
-  <si>
     <t>モルフォチョウ</t>
   </si>
   <si>
-    <t>Agrias butterfly</t>
-  </si>
-  <si>
     <t>ミイロタテハ</t>
   </si>
   <si>
@@ -1035,12 +1010,6 @@
     <t>Queen Alexandra's birdwing</t>
   </si>
   <si>
-    <t>アレクサンドラトリバネアゲハ</t>
-  </si>
-  <si>
-    <t>Moth</t>
-  </si>
-  <si>
     <t>ガ</t>
   </si>
   <si>
@@ -1056,378 +1025,192 @@
     <t>ニシキオオツバメガ</t>
   </si>
   <si>
-    <t>Long locust</t>
-  </si>
-  <si>
     <t>ショウリョウバッタ</t>
   </si>
   <si>
-    <t>草地</t>
-  </si>
-  <si>
-    <t>Migratory locust</t>
-  </si>
-  <si>
     <t>トノサマバッタ</t>
   </si>
   <si>
-    <t>Rice grasshopper</t>
-  </si>
-  <si>
     <t>イナゴ</t>
   </si>
   <si>
-    <t>Grasshopper</t>
-  </si>
-  <si>
     <t>キリギリス</t>
   </si>
   <si>
-    <t>Cricket</t>
-  </si>
-  <si>
     <t>コオロギ</t>
   </si>
   <si>
-    <t>Bell cricket</t>
-  </si>
-  <si>
     <t>スズムシ</t>
   </si>
   <si>
-    <t>Mantis</t>
-  </si>
-  <si>
     <t>カマキリ</t>
   </si>
   <si>
-    <t>Orchid mantis</t>
-  </si>
-  <si>
     <t>ハナカマキリ</t>
   </si>
   <si>
-    <t>Honeybee</t>
-  </si>
-  <si>
     <t>ミツバチ</t>
   </si>
   <si>
-    <t>Wasp</t>
-  </si>
-  <si>
     <t>ハチ</t>
   </si>
   <si>
     <t>アブラゼミ</t>
   </si>
   <si>
-    <t>Walker cicada</t>
-  </si>
-  <si>
     <t>ツクツクホウシ</t>
   </si>
   <si>
     <t>ヒグラシ</t>
   </si>
   <si>
-    <t>Cicada shell</t>
-  </si>
-  <si>
     <t>セミのぬけがら</t>
   </si>
   <si>
-    <t>Red dragonfly</t>
-  </si>
-  <si>
     <t>アキアカネ</t>
   </si>
   <si>
-    <t>Darner dragonfly</t>
-  </si>
-  <si>
     <t>ギンヤンマ</t>
   </si>
   <si>
-    <t>Banded dragonfly</t>
-  </si>
-  <si>
     <t>オニヤンマ</t>
   </si>
   <si>
-    <t>Damselfly</t>
-  </si>
-  <si>
     <t>イトトンボ</t>
   </si>
   <si>
-    <t>Firefly</t>
-  </si>
-  <si>
     <t>ホタル</t>
   </si>
   <si>
-    <t>Mole cricket</t>
-  </si>
-  <si>
     <t>オケラ</t>
   </si>
   <si>
-    <t>Pondskater</t>
-  </si>
-  <si>
     <t>アメンボ</t>
   </si>
   <si>
-    <t>Diving beetle</t>
-  </si>
-  <si>
     <t>ゲンゴロウ</t>
   </si>
   <si>
-    <t>Giant water bug</t>
-  </si>
-  <si>
     <t>タガメ</t>
   </si>
   <si>
-    <t>Stinkbug</t>
-  </si>
-  <si>
     <t>カメムシ</t>
   </si>
   <si>
-    <t>Man-faced stink bug</t>
-  </si>
-  <si>
     <t>ジンメンカメムシ</t>
   </si>
   <si>
-    <t>Ladybug</t>
-  </si>
-  <si>
     <t>テントウムシ</t>
   </si>
   <si>
-    <t>Tiger beetle</t>
-  </si>
-  <si>
     <t>ハンミョウ</t>
   </si>
   <si>
-    <t>Jewel beetle</t>
-  </si>
-  <si>
     <t>タマムシ</t>
   </si>
   <si>
-    <t>Violin beetle</t>
-  </si>
-  <si>
     <t>バイオリンムシ</t>
   </si>
   <si>
     <t>ゴマダラカミキリ</t>
   </si>
   <si>
-    <t>Rosalia batesi beetle</t>
-  </si>
-  <si>
     <t>ルリボシカミキリ</t>
   </si>
   <si>
-    <t>Blue weevil beetle</t>
-  </si>
-  <si>
     <t>ホウセキゾウムシ</t>
   </si>
   <si>
-    <t>Dung beetle</t>
-  </si>
-  <si>
     <t>フンコロガシ</t>
   </si>
   <si>
     <t>オオセンチコガネ</t>
   </si>
   <si>
-    <t>Scarab beetle</t>
-  </si>
-  <si>
     <t>プラチナコガネ</t>
   </si>
   <si>
-    <t>Drone beetle</t>
-  </si>
-  <si>
     <t>カナブン</t>
   </si>
   <si>
-    <t>Goliath beetle</t>
-  </si>
-  <si>
     <t>ゴライアスオオツノハナムグリ</t>
   </si>
   <si>
-    <t>Saw stag</t>
-  </si>
-  <si>
     <t>ノコギリクワガタ</t>
   </si>
   <si>
-    <t>Miyama stag</t>
-  </si>
-  <si>
     <t>ミヤマクワガタ</t>
   </si>
   <si>
-    <t>Giant stag</t>
-  </si>
-  <si>
     <t>オオクワガタ</t>
   </si>
   <si>
-    <t>Rainbow stag</t>
-  </si>
-  <si>
     <t>ニジイロクワガタ</t>
   </si>
   <si>
-    <t>Cyclommatus stag</t>
-  </si>
-  <si>
     <t>ホソアカクワガタ</t>
   </si>
   <si>
-    <t>Golden stag</t>
-  </si>
-  <si>
     <t>オウゴンオニクワガタ</t>
   </si>
   <si>
-    <t>Giraffe stag</t>
-  </si>
-  <si>
     <t>ギラファノコギリクワガタ</t>
   </si>
   <si>
-    <t>Horned dynastid</t>
-  </si>
-  <si>
     <t>カブトムシ</t>
   </si>
   <si>
-    <t>Horned atlas</t>
-  </si>
-  <si>
     <t>コーカサスオオカブト</t>
   </si>
   <si>
-    <t>Horned elephant</t>
-  </si>
-  <si>
     <t>ゾウカブト</t>
   </si>
   <si>
-    <t>Horned hercules</t>
-  </si>
-  <si>
     <t>ヘラクレスオオカブト</t>
   </si>
   <si>
-    <t>Walking stick</t>
-  </si>
-  <si>
     <t>ナナフシ</t>
   </si>
   <si>
-    <t>Walking leaf</t>
-  </si>
-  <si>
     <t>コノハムシ</t>
   </si>
   <si>
-    <t>Bagworm</t>
-  </si>
-  <si>
     <t>ミノムシ</t>
   </si>
   <si>
-    <t>Ant</t>
-  </si>
-  <si>
     <t>アリ</t>
   </si>
   <si>
-    <t>地面</t>
-  </si>
-  <si>
-    <t>Hermit crab</t>
-  </si>
-  <si>
     <t>ヤドカリ</t>
   </si>
   <si>
-    <t>Wharf roach</t>
-  </si>
-  <si>
     <t>フナムシ</t>
   </si>
   <si>
-    <t>Fly</t>
-  </si>
-  <si>
     <t>ハエ</t>
   </si>
   <si>
-    <t>Mosquito</t>
-  </si>
-  <si>
     <t>カ</t>
   </si>
   <si>
-    <t>Flea</t>
-  </si>
-  <si>
     <t>ノミ</t>
   </si>
   <si>
-    <t>Snail</t>
-  </si>
-  <si>
     <t>カタツムリ</t>
   </si>
   <si>
-    <t>雨天</t>
-  </si>
-  <si>
-    <t>Pill bug</t>
-  </si>
-  <si>
     <t>ダンゴムシ</t>
   </si>
   <si>
-    <t>Centipede</t>
-  </si>
-  <si>
     <t>ムカデ</t>
   </si>
   <si>
-    <t>Spider</t>
-  </si>
-  <si>
     <t>クモ</t>
   </si>
   <si>
-    <t>Tarantula</t>
-  </si>
-  <si>
     <t>タランチュラ</t>
   </si>
   <si>
-    <t>Scorpion</t>
-  </si>
-  <si>
     <t>サソリ</t>
   </si>
   <si>
@@ -1467,39 +1250,9 @@
     <t>5;6;7;8;9;10;11</t>
   </si>
   <si>
-    <t>樹幹</t>
-  </si>
-  <si>
-    <t>淡水附近</t>
-  </si>
-  <si>
-    <t>河川或池塘</t>
-  </si>
-  <si>
-    <t>樹樁</t>
-  </si>
-  <si>
-    <t>雪球附近出現</t>
-  </si>
-  <si>
-    <t>樹下擬態葉片</t>
-  </si>
-  <si>
-    <t>沙灘大岩石上</t>
-  </si>
-  <si>
-    <t>隨機出現</t>
-  </si>
-  <si>
-    <t>居民身上</t>
-  </si>
-  <si>
     <t>白粉蝶</t>
   </si>
   <si>
-    <t>綠地</t>
-  </si>
-  <si>
     <t>斑緣點粉蝶</t>
   </si>
   <si>
@@ -1536,18 +1289,9 @@
     <t>飛蛾</t>
   </si>
   <si>
-    <t>戶外燈光</t>
-  </si>
-  <si>
-    <t>附近飛行</t>
-  </si>
-  <si>
     <t>皇蛾</t>
   </si>
   <si>
-    <t>日落娥</t>
-  </si>
-  <si>
     <t>中華劍角蝗</t>
   </si>
   <si>
@@ -1569,63 +1313,36 @@
     <t>螳螂</t>
   </si>
   <si>
-    <t>花朵上</t>
-  </si>
-  <si>
     <t>蘭花螳螂</t>
   </si>
   <si>
     <t>蜜蜂</t>
   </si>
   <si>
-    <t>花叢附近</t>
-  </si>
-  <si>
     <t>黃蜂</t>
   </si>
   <si>
-    <t>搖晃或敲擊樹幹</t>
-  </si>
-  <si>
-    <t>掉下蜂巢後出現</t>
-  </si>
-  <si>
     <t>油蟬</t>
   </si>
   <si>
-    <t>Brown cicada</t>
-  </si>
-  <si>
     <t>斑透翅蟬</t>
   </si>
   <si>
-    <t>Robust cicada</t>
-  </si>
-  <si>
     <t>熊蟬</t>
   </si>
   <si>
-    <t>Giant cicada</t>
-  </si>
-  <si>
     <t>寒蟬</t>
   </si>
   <si>
     <t>暮蟬</t>
   </si>
   <si>
-    <t>Evening cicada</t>
-  </si>
-  <si>
     <t>蟬蛻</t>
   </si>
   <si>
     <t>紅蜻蜓</t>
   </si>
   <si>
-    <t>水邊</t>
-  </si>
-  <si>
     <t>綠胸晏蜓</t>
   </si>
   <si>
@@ -1641,9 +1358,6 @@
     <t>螻蛄</t>
   </si>
   <si>
-    <t>地面下</t>
-  </si>
-  <si>
     <t>水黽</t>
   </si>
   <si>
@@ -1674,24 +1388,15 @@
     <t>星天牛</t>
   </si>
   <si>
-    <t>Citrus long-horned beetle</t>
-  </si>
-  <si>
     <t>琉璃星天牛</t>
   </si>
   <si>
     <t>寶石象鼻蟲</t>
   </si>
   <si>
-    <t>蜣螂</t>
-  </si>
-  <si>
     <t>雪隱金龜</t>
   </si>
   <si>
-    <t>Earth-boring dung beetle</t>
-  </si>
-  <si>
     <t>寶石金龜</t>
   </si>
   <si>
@@ -1737,9 +1442,6 @@
     <t>竹節蟲</t>
   </si>
   <si>
-    <t>葉竹隱蟲</t>
-  </si>
-  <si>
     <t>蓑衣蟲</t>
   </si>
   <si>
@@ -1749,9 +1451,6 @@
     <t>寄居蟹</t>
   </si>
   <si>
-    <t>沙灘</t>
-  </si>
-  <si>
     <t>海蟑螂</t>
   </si>
   <si>
@@ -1770,15 +1469,9 @@
     <t>蝸牛</t>
   </si>
   <si>
-    <t>雨天石頭上</t>
-  </si>
-  <si>
     <t>鼠婦</t>
   </si>
   <si>
-    <t>石頭</t>
-  </si>
-  <si>
     <t>蜈蚣</t>
   </si>
   <si>
@@ -1789,54 +1482,6 @@
   </si>
   <si>
     <t>蠍子</t>
-  </si>
-  <si>
-    <t>垃圾或</t>
-  </si>
-  <si>
-    <t>地面跳躍</t>
-  </si>
-  <si>
-    <t>會逃跑</t>
-  </si>
-  <si>
-    <t>除椰子樹等</t>
-  </si>
-  <si>
-    <t>聽聲音挖地</t>
-  </si>
-  <si>
-    <t>水面滑行</t>
-  </si>
-  <si>
-    <t>地面爬行</t>
-  </si>
-  <si>
-    <t>搖晃敲擊垂下</t>
-  </si>
-  <si>
-    <t>腐爛大頭菜</t>
-  </si>
-  <si>
-    <t>平時像貝殼</t>
-  </si>
-  <si>
-    <t>敲擊</t>
-  </si>
-  <si>
-    <t>靠近會主動攻擊</t>
-  </si>
-  <si>
-    <t>無影響</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無影響</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>無影響</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4點-19點</t>
@@ -2038,10 +1683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背鰭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2080,10 +1721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>無影響</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4;5;6;7;8;9;10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2097,6 +1734,320 @@
   </si>
   <si>
     <t>6;7;8;9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common butterfly</t>
+  </si>
+  <si>
+    <t>yellow butterfly</t>
+  </si>
+  <si>
+    <t>tiger butterfly</t>
+  </si>
+  <si>
+    <t>peacock butterfly</t>
+  </si>
+  <si>
+    <t>common bluebottle</t>
+  </si>
+  <si>
+    <t>paper kite butterfly</t>
+  </si>
+  <si>
+    <t>great purple emperor</t>
+  </si>
+  <si>
+    <t>monarch butterfly</t>
+  </si>
+  <si>
+    <t>emperor butterfly</t>
+  </si>
+  <si>
+    <t>agrias butterfly</t>
+  </si>
+  <si>
+    <t>アレキサンドラトリバネアゲハ</t>
+  </si>
+  <si>
+    <t>moth</t>
+  </si>
+  <si>
+    <t>日落蛾</t>
+  </si>
+  <si>
+    <t>long locust</t>
+  </si>
+  <si>
+    <t>migratory locust</t>
+  </si>
+  <si>
+    <t>rice grasshopper</t>
+  </si>
+  <si>
+    <t>grasshopper</t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>bell cricket</t>
+  </si>
+  <si>
+    <t>mantis</t>
+  </si>
+  <si>
+    <t>orchid mantis</t>
+  </si>
+  <si>
+    <t>honeybee</t>
+  </si>
+  <si>
+    <t>wasp</t>
+  </si>
+  <si>
+    <t>brown cicada</t>
+  </si>
+  <si>
+    <t>robust cicada</t>
+  </si>
+  <si>
+    <t>giant cicada</t>
+  </si>
+  <si>
+    <t>walker cicada</t>
+  </si>
+  <si>
+    <t>evening cicada</t>
+  </si>
+  <si>
+    <t>cicada shell</t>
+  </si>
+  <si>
+    <t>red dragonfly</t>
+  </si>
+  <si>
+    <t>darner dragonfly</t>
+  </si>
+  <si>
+    <t>banded dragonfly</t>
+  </si>
+  <si>
+    <t>damselfly</t>
+  </si>
+  <si>
+    <t>firefly</t>
+  </si>
+  <si>
+    <t>mole cricket</t>
+  </si>
+  <si>
+    <t>pondskater</t>
+  </si>
+  <si>
+    <t>diving beetle</t>
+  </si>
+  <si>
+    <t>giant water bug</t>
+  </si>
+  <si>
+    <t>stinkbug</t>
+  </si>
+  <si>
+    <t>man-faced stink bug</t>
+  </si>
+  <si>
+    <t>ladybug</t>
+  </si>
+  <si>
+    <t>tiger beetle</t>
+  </si>
+  <si>
+    <t>jewel beetle</t>
+  </si>
+  <si>
+    <t>violin beetle</t>
+  </si>
+  <si>
+    <t>citrus long-horned beetle</t>
+  </si>
+  <si>
+    <t>rosalia batesi beetle</t>
+  </si>
+  <si>
+    <t>blue weevil beetle</t>
+  </si>
+  <si>
+    <t>糞金龜</t>
+  </si>
+  <si>
+    <t>dung beetle</t>
+  </si>
+  <si>
+    <t>earth-boring dung beetle</t>
+  </si>
+  <si>
+    <t>scarab beetle</t>
+  </si>
+  <si>
+    <t>drone beetle</t>
+  </si>
+  <si>
+    <t>goliath beetle</t>
+  </si>
+  <si>
+    <t>saw stag</t>
+  </si>
+  <si>
+    <t>miyama stag</t>
+  </si>
+  <si>
+    <t>giant stag</t>
+  </si>
+  <si>
+    <t>rainbow stag</t>
+  </si>
+  <si>
+    <t>cyclommatus stag</t>
+  </si>
+  <si>
+    <t>golden stag</t>
+  </si>
+  <si>
+    <t>giraffe stag</t>
+  </si>
+  <si>
+    <t>horned dynastid</t>
+  </si>
+  <si>
+    <t>horned atlas</t>
+  </si>
+  <si>
+    <t>horned elephant</t>
+  </si>
+  <si>
+    <t>horned hercules</t>
+  </si>
+  <si>
+    <t>walking stick</t>
+  </si>
+  <si>
+    <t>葉竹節蟲</t>
+  </si>
+  <si>
+    <t>walking leaf</t>
+  </si>
+  <si>
+    <t>bagworm</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>hermit crab</t>
+  </si>
+  <si>
+    <t>wharf roach</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>mosquito</t>
+  </si>
+  <si>
+    <t>flea</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>pill bug</t>
+  </si>
+  <si>
+    <t>centipede</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>tarantula</t>
+  </si>
+  <si>
+    <t>scorpion</t>
+  </si>
+  <si>
+    <t>搖樹</t>
+  </si>
+  <si>
+    <t>推雪球</t>
+  </si>
+  <si>
+    <t>喬裝在樹下</t>
+  </si>
+  <si>
+    <t>偽裝在海岸線上</t>
+  </si>
+  <si>
+    <t>飛行(藍色/紫色/黑色花朵附近)</t>
+  </si>
+  <si>
+    <t>飛行(光源附近)</t>
+  </si>
+  <si>
+    <t>飛行(花朵附近)</t>
+  </si>
+  <si>
+    <t>樹上(任何種類)</t>
+  </si>
+  <si>
+    <t>地上</t>
+  </si>
+  <si>
+    <t>花上</t>
+  </si>
+  <si>
+    <t>白花上</t>
+  </si>
+  <si>
+    <t>闊葉樹/針葉樹上</t>
+  </si>
+  <si>
+    <t>飛行(水附近)</t>
+  </si>
+  <si>
+    <t>搖樹(僅闊葉樹/針葉樹)</t>
+  </si>
+  <si>
+    <t>椰子樹上</t>
+  </si>
+  <si>
+    <t>樹樁上</t>
+  </si>
+  <si>
+    <t>河流/池塘上</t>
+  </si>
+  <si>
+    <t>爛蘿蔔上</t>
+  </si>
+  <si>
+    <t>沙灘上</t>
+  </si>
+  <si>
+    <t>村民身上</t>
+  </si>
+  <si>
+    <t>岩石/灌木叢上</t>
+  </si>
+  <si>
+    <t>敲石頭</t>
+  </si>
+  <si>
+    <t>飛行(在垃圾[靴子,輪胎,罐頭]或腐爛的大頭菜附近)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下(挖掘噪音最大的地方)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2458,37 +2409,37 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>645</v>
+        <v>525</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>646</v>
+        <v>526</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>647</v>
+        <v>527</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>648</v>
+        <v>528</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>649</v>
+        <v>529</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>650</v>
+        <v>530</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>651</v>
+        <v>531</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>652</v>
+        <v>532</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>653</v>
+        <v>533</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>654</v>
+        <v>534</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>655</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2918,7 +2869,7 @@
         <v>303</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>668</v>
+        <v>546</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>262</v>
@@ -3098,13 +3049,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>670</v>
+        <v>548</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>669</v>
+        <v>547</v>
       </c>
       <c r="E20" s="1">
         <v>5500</v>
@@ -3275,7 +3226,7 @@
         <v>1800</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>303</v>
@@ -3473,7 +3424,7 @@
         <v>15000</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>58</v>
@@ -3539,7 +3490,7 @@
         <v>1800</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>304</v>
@@ -3815,7 +3766,7 @@
         <v>282</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>643</v>
+        <v>523</v>
       </c>
       <c r="K41" s="1"/>
     </row>
@@ -3869,7 +3820,7 @@
         <v>15000</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>303</v>
@@ -3902,7 +3853,7 @@
         <v>6000</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -3935,7 +3886,7 @@
         <v>10000</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>664</v>
+        <v>543</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>303</v>
@@ -4001,7 +3952,7 @@
         <v>10000</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>664</v>
+        <v>543</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>304</v>
@@ -4199,7 +4150,7 @@
         <v>10000</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>664</v>
+        <v>543</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>99</v>
@@ -4430,7 +4381,7 @@
         <v>400</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>99</v>
@@ -4469,7 +4420,7 @@
         <v>99</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>618</v>
+        <v>498</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>255</v>
@@ -4529,7 +4480,7 @@
         <v>800</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>99</v>
@@ -4661,7 +4612,7 @@
         <v>7000</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>664</v>
+        <v>543</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>138</v>
@@ -4694,7 +4645,7 @@
         <v>10000</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>664</v>
+        <v>543</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>138</v>
@@ -4727,7 +4678,7 @@
         <v>4500</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>138</v>
@@ -4760,7 +4711,7 @@
         <v>6000</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>138</v>
@@ -4826,7 +4777,7 @@
         <v>3000</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>662</v>
+        <v>541</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>99</v>
@@ -5057,7 +5008,7 @@
         <v>9000</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>664</v>
+        <v>543</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>99</v>
@@ -5123,7 +5074,7 @@
         <v>15000</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>664</v>
+        <v>543</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>99</v>
@@ -5150,10 +5101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5164,173 +5115,145 @@
     <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>645</v>
+        <v>525</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>646</v>
+        <v>526</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>647</v>
+        <v>527</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>648</v>
+        <v>528</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>656</v>
+        <v>529</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>651</v>
+        <v>531</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>652</v>
+        <v>532</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>653</v>
+        <v>533</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>485</v>
+        <v>401</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>308</v>
+        <v>550</v>
       </c>
       <c r="E2" s="1">
         <v>160</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>619</v>
+        <v>499</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>487</v>
+        <v>402</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>311</v>
+        <v>551</v>
       </c>
       <c r="E3" s="1">
         <v>160</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>465</v>
+        <v>390</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>620</v>
+        <v>500</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>488</v>
+        <v>403</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>313</v>
+        <v>552</v>
       </c>
       <c r="E4" s="1">
         <v>240</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>287</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>621</v>
+        <v>501</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>489</v>
+        <v>404</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>315</v>
+        <v>553</v>
       </c>
       <c r="E5" s="1">
         <v>2500</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>486</v>
+        <v>634</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>276</v>
@@ -5339,68 +5262,56 @@
         <v>275</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>490</v>
+        <v>405</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>554</v>
       </c>
       <c r="E6" s="1">
         <v>300</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>622</v>
+        <v>502</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>491</v>
+        <v>406</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>319</v>
+        <v>555</v>
       </c>
       <c r="E7" s="1">
         <v>1000</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>255</v>
@@ -5409,68 +5320,56 @@
         <v>255</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>492</v>
+        <v>407</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>321</v>
+        <v>556</v>
       </c>
       <c r="E8" s="1">
         <v>3000</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>265</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>623</v>
+        <v>503</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>493</v>
+        <v>408</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>323</v>
+        <v>557</v>
       </c>
       <c r="E9" s="1">
         <v>140</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>268</v>
@@ -5479,173 +5378,143 @@
         <v>267</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>494</v>
+        <v>409</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>325</v>
+        <v>558</v>
       </c>
       <c r="E10" s="1">
         <v>4000</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>624</v>
+        <v>504</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>625</v>
+        <v>505</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>495</v>
+        <v>410</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>327</v>
+        <v>559</v>
       </c>
       <c r="E11" s="1">
         <v>3000</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>258</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E12" s="1">
         <v>2500</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>627</v>
+        <v>507</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>628</v>
+        <v>508</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>497</v>
+        <v>412</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>332</v>
+        <v>560</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E13" s="1">
         <v>4000</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>254</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>629</v>
+        <v>509</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>498</v>
+        <v>413</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>333</v>
+        <v>561</v>
       </c>
       <c r="E14" s="1">
         <v>130</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>255</v>
@@ -5654,136 +5523,114 @@
         <v>255</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>501</v>
+        <v>414</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E15" s="1">
         <v>3000</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E16" s="1">
         <v>2500</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>486</v>
+        <v>636</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>258</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>503</v>
+        <v>415</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>339</v>
+        <v>563</v>
       </c>
       <c r="E17" s="1">
         <v>200</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>630</v>
+        <v>510</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>504</v>
+        <v>416</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>342</v>
+        <v>564</v>
       </c>
       <c r="E18" s="1">
         <v>600</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>299</v>
@@ -5792,33 +5639,27 @@
         <v>300</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>505</v>
+        <v>417</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>344</v>
+        <v>565</v>
       </c>
       <c r="E19" s="1">
         <v>400</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>299</v>
@@ -5827,33 +5668,27 @@
         <v>300</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>506</v>
+        <v>418</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>346</v>
+        <v>566</v>
       </c>
       <c r="E20" s="1">
         <v>160</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>277</v>
@@ -5862,33 +5697,27 @@
         <v>278</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>507</v>
+        <v>419</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>348</v>
+        <v>567</v>
       </c>
       <c r="E21" s="1">
         <v>130</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>268</v>
@@ -5897,173 +5726,143 @@
         <v>267</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>508</v>
+        <v>420</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>350</v>
+        <v>568</v>
       </c>
       <c r="E22" s="1">
         <v>430</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>466</v>
+        <v>391</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>509</v>
+        <v>421</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>352</v>
+        <v>569</v>
       </c>
       <c r="E23" s="1">
         <v>430</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>510</v>
+        <v>639</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>290</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>631</v>
+        <v>511</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>511</v>
+        <v>422</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>354</v>
+        <v>570</v>
       </c>
       <c r="E24" s="1">
         <v>2400</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>510</v>
+        <v>640</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>290</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>631</v>
+        <v>511</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>512</v>
+        <v>423</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>356</v>
+        <v>571</v>
       </c>
       <c r="E25" s="1">
         <v>200</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>513</v>
+        <v>636</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>632</v>
+        <v>512</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>358</v>
+        <v>572</v>
       </c>
       <c r="E26" s="1">
         <v>2500</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>515</v>
+        <v>630</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>255</v>
@@ -6074,31 +5873,25 @@
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
       <c r="E27" s="1">
         <v>250</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>476</v>
+        <v>641</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>288</v>
@@ -6107,33 +5900,27 @@
         <v>289</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>519</v>
+        <v>426</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>468</v>
+        <v>393</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>520</v>
+        <v>574</v>
       </c>
       <c r="E28" s="1">
         <v>300</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>476</v>
+        <v>641</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>288</v>
@@ -6142,33 +5929,27 @@
         <v>289</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>521</v>
+        <v>427</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="E29" s="1">
         <v>500</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>476</v>
+        <v>641</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>288</v>
@@ -6177,33 +5958,27 @@
         <v>289</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>523</v>
+        <v>428</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>361</v>
+        <v>576</v>
       </c>
       <c r="E30" s="1">
         <v>400</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>476</v>
+        <v>641</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>260</v>
@@ -6212,33 +5987,27 @@
         <v>261</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>524</v>
+        <v>429</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="E31" s="1">
         <v>550</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>476</v>
+        <v>641</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>288</v>
@@ -6247,33 +6016,27 @@
         <v>289</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>526</v>
+        <v>430</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>364</v>
+        <v>578</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>476</v>
+        <v>641</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>288</v>
@@ -6284,139 +6047,115 @@
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>527</v>
+        <v>431</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>366</v>
+        <v>579</v>
       </c>
       <c r="E33" s="1">
         <v>180</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>528</v>
+        <v>642</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>466</v>
+        <v>391</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>529</v>
+        <v>432</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>368</v>
+        <v>580</v>
       </c>
       <c r="E34" s="1">
         <v>230</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>528</v>
+        <v>642</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>292</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>633</v>
+        <v>513</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>530</v>
+        <v>433</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>370</v>
+        <v>581</v>
       </c>
       <c r="E35" s="1">
         <v>4500</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>528</v>
+        <v>642</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>634</v>
+        <v>514</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>531</v>
+        <v>434</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>372</v>
+        <v>582</v>
       </c>
       <c r="E36" s="1">
         <v>500</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G36" s="1" t="s">
-        <v>528</v>
+        <v>642</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>623</v>
+        <v>503</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>265</v>
@@ -6424,31 +6163,25 @@
       <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>532</v>
+        <v>435</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>374</v>
+        <v>583</v>
       </c>
       <c r="E37" s="1">
         <v>300</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>477</v>
+        <v>642</v>
       </c>
       <c r="H37" s="1">
         <v>6</v>
@@ -6457,373 +6190,317 @@
         <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>533</v>
+        <v>436</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>376</v>
+        <v>584</v>
       </c>
       <c r="E38" s="1">
         <v>500</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>534</v>
+        <v>653</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>635</v>
+        <v>515</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>475</v>
+        <v>400</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>535</v>
+        <v>437</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>378</v>
+        <v>585</v>
       </c>
       <c r="E39" s="1">
         <v>130</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>13</v>
+        <v>646</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>254</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>629</v>
+        <v>509</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>536</v>
+        <v>438</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>380</v>
+        <v>586</v>
       </c>
       <c r="E40" s="1">
         <v>800</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>478</v>
+        <v>646</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>254</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>629</v>
+        <v>509</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>382</v>
+        <v>587</v>
       </c>
       <c r="E41" s="1">
         <v>2000</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>478</v>
+        <v>646</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>258</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>626</v>
+        <v>506</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>538</v>
+        <v>440</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>384</v>
+        <v>588</v>
       </c>
       <c r="E42" s="1">
         <v>120</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G42" s="1" t="s">
-        <v>510</v>
+        <v>639</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>470</v>
+        <v>395</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>636</v>
+        <v>516</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>539</v>
+        <v>441</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>386</v>
+        <v>589</v>
       </c>
       <c r="E43" s="1">
         <v>1000</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>510</v>
+        <v>639</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>470</v>
+        <v>395</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>636</v>
+        <v>516</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>540</v>
+        <v>442</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>388</v>
+        <v>590</v>
       </c>
       <c r="E44" s="1">
         <v>200</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>510</v>
+        <v>639</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>471</v>
+        <v>396</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>637</v>
+        <v>517</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>541</v>
+        <v>443</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>390</v>
+        <v>591</v>
       </c>
       <c r="E45" s="1">
         <v>1500</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G45" s="1" t="s">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>472</v>
+        <v>397</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>638</v>
+        <v>518</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>392</v>
+        <v>592</v>
       </c>
       <c r="E46" s="1">
         <v>2400</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>479</v>
+        <v>645</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>622</v>
+        <v>502</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11">
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>543</v>
+        <v>445</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>394</v>
+        <v>593</v>
       </c>
       <c r="E47" s="1">
         <v>450</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>479</v>
+        <v>645</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>639</v>
+        <v>519</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11">
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="E48" s="1">
         <v>350</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>479</v>
+        <v>645</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>255</v>
@@ -6834,62 +6511,54 @@
       <c r="J48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>546</v>
+        <v>447</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>397</v>
+        <v>595</v>
       </c>
       <c r="E49" s="1">
         <v>3000</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>479</v>
+        <v>645</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>254</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>629</v>
+        <v>509</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>547</v>
+        <v>448</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>399</v>
+        <v>596</v>
       </c>
       <c r="E50" s="1">
         <v>800</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>288</v>
@@ -6900,32 +6569,28 @@
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>548</v>
+        <v>597</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>401</v>
+        <v>598</v>
       </c>
       <c r="E51" s="1">
         <v>3000</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>480</v>
+        <v>631</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>271</v>
@@ -6933,29 +6598,25 @@
       <c r="J51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11">
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>549</v>
+        <v>449</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>550</v>
+        <v>599</v>
       </c>
       <c r="E52" s="1">
         <v>300</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>277</v>
@@ -6966,31 +6627,25 @@
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>551</v>
+        <v>450</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>404</v>
+        <v>600</v>
       </c>
       <c r="E53" s="1">
         <v>10000</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>288</v>
@@ -6999,34 +6654,30 @@
         <v>289</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>552</v>
+        <v>451</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>406</v>
+        <v>601</v>
       </c>
       <c r="E54" s="1">
         <v>200</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G54" s="1" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>671</v>
+        <v>549</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>278</v>
@@ -7034,62 +6685,54 @@
       <c r="J54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11">
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>553</v>
+        <v>452</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>408</v>
+        <v>602</v>
       </c>
       <c r="E55" s="1">
         <v>8000</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>283</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>641</v>
+        <v>521</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>554</v>
+        <v>453</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>410</v>
+        <v>603</v>
       </c>
       <c r="E56" s="1">
         <v>2000</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>288</v>
@@ -7100,29 +6743,25 @@
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11">
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>555</v>
+        <v>454</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>412</v>
+        <v>604</v>
       </c>
       <c r="E57" s="1">
         <v>1000</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>288</v>
@@ -7133,29 +6772,25 @@
       <c r="J57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11">
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>556</v>
+        <v>455</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
       <c r="E58" s="1">
         <v>10000</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>288</v>
@@ -7164,64 +6799,56 @@
         <v>289</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>557</v>
+        <v>456</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>416</v>
+        <v>606</v>
       </c>
       <c r="E59" s="1">
         <v>6000</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G59" s="1" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>283</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>641</v>
+        <v>521</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>558</v>
+        <v>457</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>418</v>
+        <v>607</v>
       </c>
       <c r="E60" s="1">
         <v>8000</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>288</v>
@@ -7230,31 +6857,27 @@
         <v>289</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>559</v>
+        <v>458</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>420</v>
+        <v>608</v>
       </c>
       <c r="E61" s="1">
         <v>12000</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>288</v>
@@ -7263,31 +6886,27 @@
         <v>289</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>560</v>
+        <v>459</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>422</v>
+        <v>609</v>
       </c>
       <c r="E62" s="1">
         <v>12000</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G62" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>288</v>
@@ -7296,31 +6915,27 @@
         <v>289</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>561</v>
+        <v>460</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>424</v>
+        <v>610</v>
       </c>
       <c r="E63" s="1">
         <v>1350</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G63" s="1" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>288</v>
@@ -7329,31 +6944,27 @@
         <v>289</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>562</v>
+        <v>461</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>426</v>
+        <v>611</v>
       </c>
       <c r="E64" s="1">
         <v>8000</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>288</v>
@@ -7362,31 +6973,27 @@
         <v>289</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>563</v>
+        <v>462</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>428</v>
+        <v>612</v>
       </c>
       <c r="E65" s="1">
         <v>8000</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>288</v>
@@ -7395,31 +7002,27 @@
         <v>289</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>564</v>
+        <v>463</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>430</v>
+        <v>613</v>
       </c>
       <c r="E66" s="1">
         <v>12000</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>288</v>
@@ -7428,64 +7031,56 @@
         <v>289</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>433</v>
+        <v>374</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>432</v>
+        <v>614</v>
       </c>
       <c r="E67" s="1">
         <v>600</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>476</v>
+        <v>637</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>642</v>
+        <v>522</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>474</v>
+        <v>399</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>566</v>
+        <v>615</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>434</v>
+        <v>616</v>
       </c>
       <c r="E68" s="1">
         <v>600</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>481</v>
+        <v>632</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>277</v>
@@ -7496,29 +7091,25 @@
       <c r="J68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>436</v>
+        <v>617</v>
       </c>
       <c r="E69" s="1">
         <v>600</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>476</v>
+        <v>643</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>255</v>
@@ -7529,31 +7120,25 @@
       <c r="J69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>568</v>
+        <v>466</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>439</v>
+        <v>377</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>438</v>
+        <v>618</v>
       </c>
       <c r="E70" s="1">
         <v>80</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>440</v>
+        <v>647</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>255</v>
@@ -7564,31 +7149,25 @@
       <c r="J70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>442</v>
+        <v>378</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>441</v>
+        <v>619</v>
       </c>
       <c r="E71" s="1">
         <v>1000</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G71" s="1" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>255</v>
@@ -7597,33 +7176,27 @@
         <v>255</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>571</v>
+        <v>468</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>443</v>
+        <v>620</v>
       </c>
       <c r="E72" s="1">
         <v>200</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>482</v>
+        <v>648</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>255</v>
@@ -7634,29 +7207,25 @@
       <c r="J72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11">
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>572</v>
+        <v>469</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>445</v>
+        <v>621</v>
       </c>
       <c r="E73" s="1">
         <v>60</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>573</v>
+        <v>652</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>255</v>
@@ -7667,97 +7236,83 @@
       <c r="J73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>574</v>
+        <v>471</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>447</v>
+        <v>622</v>
       </c>
       <c r="E74" s="1">
         <v>130</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G74" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>283</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>641</v>
+        <v>521</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>575</v>
+        <v>472</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>449</v>
+        <v>623</v>
       </c>
       <c r="E75" s="1">
         <v>70</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G75" s="1" t="s">
-        <v>484</v>
+        <v>649</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>284</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>631</v>
+        <v>511</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>576</v>
+        <v>473</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>451</v>
+        <v>624</v>
       </c>
       <c r="E76" s="1">
         <v>250</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="G76" s="1" t="s">
-        <v>577</v>
+        <v>650</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>255</v>
@@ -7768,101 +7323,83 @@
       <c r="J76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>578</v>
+        <v>474</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>455</v>
+        <v>384</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>454</v>
+        <v>625</v>
       </c>
       <c r="E77" s="1">
         <v>250</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G77" s="1" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>619</v>
+        <v>499</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>580</v>
+        <v>475</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>456</v>
+        <v>626</v>
       </c>
       <c r="E78" s="1">
         <v>300</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>619</v>
+        <v>499</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>581</v>
+        <v>476</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>459</v>
+        <v>386</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>458</v>
+        <v>627</v>
       </c>
       <c r="E79" s="1">
         <v>600</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G79" s="1" t="s">
-        <v>476</v>
+        <v>643</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>255</v>
@@ -7871,45 +7408,36 @@
         <v>255</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>460</v>
+        <v>628</v>
       </c>
       <c r="E80" s="1">
         <v>8000</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>440</v>
+        <v>638</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>634</v>
+        <v>514</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>269</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>595</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -7917,31 +7445,28 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>583</v>
+        <v>478</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>463</v>
+        <v>388</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>462</v>
+        <v>629</v>
       </c>
       <c r="E81" s="1">
         <v>8000</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>440</v>
+        <v>638</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>269</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>634</v>
+        <v>514</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>617</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -7965,7 +7490,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>657</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7973,7 +7498,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>658</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7981,7 +7506,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>659</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7989,7 +7514,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>660</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7997,7 +7522,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>661</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8005,7 +7530,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>663</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8013,7 +7538,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>665</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8021,7 +7546,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>666</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
